--- a/Project_Schedule.xlsx
+++ b/Project_Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://northeastern-my.sharepoint.com/personal/f_nafa_northeastern_edu/Documents/Northeastren/Spring2025/Spring2025_DS5500Capstone/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tacobell/Documents/Workspace/NEU/2025_SUMMER/DS5110/entity-relation-mapping-tax-compliance-ai-agent/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36D64609-8AA6-4578-8249-2CAF919C5A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519AF275-74CE-6248-BFF7-16D6BEE43384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Schedule" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
   <si>
     <t>PROJECT NAME</t>
   </si>
   <si>
-    <t>PROJECT MANAGER</t>
-  </si>
-  <si>
     <t>PROJECT DELIVERABLE</t>
   </si>
   <si>
@@ -191,13 +188,16 @@
   </si>
   <si>
     <t>PROJECT SCHEDULE TEMPLATE</t>
+  </si>
+  <si>
+    <t>entity-relation-mapping-tax-compliance-ai-agent</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +221,12 @@
     <font>
       <b/>
       <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -299,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -310,15 +316,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -624,13 +632,13 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
@@ -638,23 +646,23 @@
     <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
+      <c r="B2" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -662,349 +670,349 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="6" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="16">
+        <v>45809</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="14">
+      <c r="C8" s="12">
         <v>45665</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="12">
         <v>45665</v>
       </c>
       <c r="E8" s="7">
         <v>2</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="14">
+      <c r="C9" s="12">
         <v>45903</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="12">
         <v>45907</v>
       </c>
       <c r="E9" s="7">
         <v>5</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F9" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="E10" s="7">
         <v>6</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F10" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="E11" s="7">
         <v>3</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="B12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="E12" s="7">
         <v>5</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="B13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="E13" s="7">
         <v>2</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F13" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="E14" s="7">
         <v>5</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="B15" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="E15" s="7">
         <v>3</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F15" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="E16" s="7">
         <v>5</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F16" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="D17" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="E17" s="7">
         <v>5</v>
       </c>
-      <c r="F17" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F17" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="C18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="E18" s="7">
         <v>9</v>
       </c>
-      <c r="F18" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F18" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="E19" s="7">
         <v>4</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F19" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="E20" s="7">
         <v>3</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F20" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="E21" s="7">
         <v>4</v>
       </c>
-      <c r="F21" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
+      <c r="F21" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
